--- a/ResultadoEleicoesDistritos/AVEIRO_OLIVEIRA DE AZEMÉIS.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_OLIVEIRA DE AZEMÉIS.xlsx
@@ -597,64 +597,64 @@
         <v>18144</v>
       </c>
       <c r="H2" t="n">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="I2" t="n">
-        <v>1865</v>
+        <v>1797</v>
       </c>
       <c r="J2" t="n">
-        <v>7452</v>
+        <v>7529</v>
       </c>
       <c r="K2" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L2" t="n">
-        <v>2031</v>
+        <v>2136</v>
       </c>
       <c r="M2" t="n">
         <v>126</v>
       </c>
       <c r="N2" t="n">
-        <v>1337</v>
+        <v>1210</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S2" t="n">
-        <v>783</v>
+        <v>851</v>
       </c>
       <c r="T2" t="n">
-        <v>1300</v>
+        <v>1265</v>
       </c>
       <c r="U2" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="V2" t="n">
-        <v>11717</v>
+        <v>11546</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>11481</v>
+        <v>11671</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="n">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
